--- a/XOM.xlsx
+++ b/XOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90506FC6-1694-4C47-9A05-E9776C15F97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7D1B4-4934-4CB3-B1AE-989690ED03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,10 +797,10 @@
   <dimension ref="B1:CZ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK30" sqref="AK30"/>
+      <selection pane="bottomRight" activeCell="AK27" sqref="AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="AI13" s="2">
         <f t="shared" si="58"/>
-        <v>11420.099999999999</v>
+        <v>13307.940000000002</v>
       </c>
     </row>
     <row r="14" spans="2:104" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2551,283 +2551,283 @@
       </c>
       <c r="AI14" s="6">
         <f>AH14*(1+$AK$26)</f>
-        <v>24777.9</v>
+        <v>22890.059999999998</v>
       </c>
       <c r="AJ14" s="6">
         <f>AI14*(1+$AK$26)</f>
-        <v>26016.795000000002</v>
+        <v>22203.358199999999</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" ref="AK14:CV14" si="63">AJ14*(1+$AK$26)</f>
-        <v>27317.634750000005</v>
+        <v>21537.257453999999</v>
       </c>
       <c r="AL14" s="6">
         <f t="shared" si="63"/>
-        <v>28683.516487500005</v>
+        <v>20891.139730379997</v>
       </c>
       <c r="AM14" s="6">
         <f t="shared" si="63"/>
-        <v>30117.692311875006</v>
+        <v>20264.405538468596</v>
       </c>
       <c r="AN14" s="6">
         <f t="shared" si="63"/>
-        <v>31623.576927468755</v>
+        <v>19656.473372314536</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="63"/>
-        <v>33204.755773842197</v>
+        <v>19066.779171145099</v>
       </c>
       <c r="AP14" s="6">
         <f t="shared" si="63"/>
-        <v>34864.993562534306</v>
+        <v>18494.775796010745</v>
       </c>
       <c r="AQ14" s="6">
         <f t="shared" si="63"/>
-        <v>36608.243240661024</v>
+        <v>17939.932522130421</v>
       </c>
       <c r="AR14" s="6">
         <f t="shared" si="63"/>
-        <v>38438.655402694079</v>
+        <v>17401.734546466509</v>
       </c>
       <c r="AS14" s="6">
         <f t="shared" si="63"/>
-        <v>40360.588172828786</v>
+        <v>16879.682510072515</v>
       </c>
       <c r="AT14" s="6">
         <f t="shared" si="63"/>
-        <v>42378.617581470229</v>
+        <v>16373.292034770338</v>
       </c>
       <c r="AU14" s="6">
         <f t="shared" si="63"/>
-        <v>44497.548460543745</v>
+        <v>15882.093273727229</v>
       </c>
       <c r="AV14" s="6">
         <f t="shared" si="63"/>
-        <v>46722.425883570933</v>
+        <v>15405.630475515411</v>
       </c>
       <c r="AW14" s="6">
         <f t="shared" si="63"/>
-        <v>49058.547177749482</v>
+        <v>14943.461561249947</v>
       </c>
       <c r="AX14" s="6">
         <f t="shared" si="63"/>
-        <v>51511.474536636961</v>
+        <v>14495.157714412449</v>
       </c>
       <c r="AY14" s="6">
         <f t="shared" si="63"/>
-        <v>54087.048263468809</v>
+        <v>14060.302982980076</v>
       </c>
       <c r="AZ14" s="6">
         <f t="shared" si="63"/>
-        <v>56791.400676642254</v>
+        <v>13638.493893490673</v>
       </c>
       <c r="BA14" s="6">
         <f t="shared" si="63"/>
-        <v>59630.970710474372</v>
+        <v>13229.339076685952</v>
       </c>
       <c r="BB14" s="6">
         <f t="shared" si="63"/>
-        <v>62612.51924599809</v>
+        <v>12832.458904385374</v>
       </c>
       <c r="BC14" s="6">
         <f t="shared" si="63"/>
-        <v>65743.145208297996</v>
+        <v>12447.485137253812</v>
       </c>
       <c r="BD14" s="6">
         <f t="shared" si="63"/>
-        <v>69030.302468712893</v>
+        <v>12074.060583136197</v>
       </c>
       <c r="BE14" s="6">
         <f t="shared" si="63"/>
-        <v>72481.817592148538</v>
+        <v>11711.838765642111</v>
       </c>
       <c r="BF14" s="6">
         <f t="shared" si="63"/>
-        <v>76105.908471755974</v>
+        <v>11360.483602672848</v>
       </c>
       <c r="BG14" s="6">
         <f t="shared" si="63"/>
-        <v>79911.203895343773</v>
+        <v>11019.669094592662</v>
       </c>
       <c r="BH14" s="6">
         <f t="shared" si="63"/>
-        <v>83906.76409011097</v>
+        <v>10689.079021754882</v>
       </c>
       <c r="BI14" s="6">
         <f t="shared" si="63"/>
-        <v>88102.102294616518</v>
+        <v>10368.406651102236</v>
       </c>
       <c r="BJ14" s="6">
         <f t="shared" si="63"/>
-        <v>92507.207409347349</v>
+        <v>10057.354451569168</v>
       </c>
       <c r="BK14" s="6">
         <f t="shared" si="63"/>
-        <v>97132.567779814723</v>
+        <v>9755.6338180220937</v>
       </c>
       <c r="BL14" s="6">
         <f t="shared" si="63"/>
-        <v>101989.19616880546</v>
+        <v>9462.9648034814309</v>
       </c>
       <c r="BM14" s="6">
         <f t="shared" si="63"/>
-        <v>107088.65597724574</v>
+        <v>9179.0758593769879</v>
       </c>
       <c r="BN14" s="6">
         <f t="shared" si="63"/>
-        <v>112443.08877610804</v>
+        <v>8903.7035835956776</v>
       </c>
       <c r="BO14" s="6">
         <f t="shared" si="63"/>
-        <v>118065.24321491344</v>
+        <v>8636.5924760878079</v>
       </c>
       <c r="BP14" s="6">
         <f t="shared" si="63"/>
-        <v>123968.50537565912</v>
+        <v>8377.4947018051735</v>
       </c>
       <c r="BQ14" s="6">
         <f t="shared" si="63"/>
-        <v>130166.93064444208</v>
+        <v>8126.1698607510179</v>
       </c>
       <c r="BR14" s="6">
         <f t="shared" si="63"/>
-        <v>136675.27717666418</v>
+        <v>7882.3847649284871</v>
       </c>
       <c r="BS14" s="6">
         <f t="shared" si="63"/>
-        <v>143509.04103549739</v>
+        <v>7645.9132219806324</v>
       </c>
       <c r="BT14" s="6">
         <f t="shared" si="63"/>
-        <v>150684.49308727228</v>
+        <v>7416.5358253212135</v>
       </c>
       <c r="BU14" s="6">
         <f t="shared" si="63"/>
-        <v>158218.71774163589</v>
+        <v>7194.0397505615765</v>
       </c>
       <c r="BV14" s="6">
         <f t="shared" si="63"/>
-        <v>166129.6536287177</v>
+        <v>6978.2185580447294</v>
       </c>
       <c r="BW14" s="6">
         <f t="shared" si="63"/>
-        <v>174436.13631015358</v>
+        <v>6768.8720013033872</v>
       </c>
       <c r="BX14" s="6">
         <f t="shared" si="63"/>
-        <v>183157.94312566126</v>
+        <v>6565.8058412642849</v>
       </c>
       <c r="BY14" s="6">
         <f t="shared" si="63"/>
-        <v>192315.84028194434</v>
+        <v>6368.8316660263563</v>
       </c>
       <c r="BZ14" s="6">
         <f t="shared" si="63"/>
-        <v>201931.63229604156</v>
+        <v>6177.7667160455658</v>
       </c>
       <c r="CA14" s="6">
         <f t="shared" si="63"/>
-        <v>212028.21391084365</v>
+        <v>5992.4337145641985</v>
       </c>
       <c r="CB14" s="6">
         <f t="shared" si="63"/>
-        <v>222629.62460638586</v>
+        <v>5812.6607031272724</v>
       </c>
       <c r="CC14" s="6">
         <f t="shared" si="63"/>
-        <v>233761.10583670516</v>
+        <v>5638.280882033454</v>
       </c>
       <c r="CD14" s="6">
         <f t="shared" si="63"/>
-        <v>245449.16112854044</v>
+        <v>5469.1324555724505</v>
       </c>
       <c r="CE14" s="6">
         <f t="shared" si="63"/>
-        <v>257721.61918496748</v>
+        <v>5305.0584819052765</v>
       </c>
       <c r="CF14" s="6">
         <f t="shared" si="63"/>
-        <v>270607.70014421584</v>
+        <v>5145.9067274481176</v>
       </c>
       <c r="CG14" s="6">
         <f t="shared" si="63"/>
-        <v>284138.08515142667</v>
+        <v>4991.5295256246736</v>
       </c>
       <c r="CH14" s="6">
         <f t="shared" si="63"/>
-        <v>298344.98940899799</v>
+        <v>4841.783639855933</v>
       </c>
       <c r="CI14" s="6">
         <f t="shared" si="63"/>
-        <v>313262.23887944792</v>
+        <v>4696.5301306602551</v>
       </c>
       <c r="CJ14" s="6">
         <f t="shared" si="63"/>
-        <v>328925.35082342033</v>
+        <v>4555.634226740447</v>
       </c>
       <c r="CK14" s="6">
         <f t="shared" si="63"/>
-        <v>345371.61836459138</v>
+        <v>4418.9651999382331</v>
       </c>
       <c r="CL14" s="6">
         <f t="shared" si="63"/>
-        <v>362640.19928282098</v>
+        <v>4286.3962439400857</v>
       </c>
       <c r="CM14" s="6">
         <f t="shared" si="63"/>
-        <v>380772.20924696204</v>
+        <v>4157.804356621883</v>
       </c>
       <c r="CN14" s="6">
         <f t="shared" si="63"/>
-        <v>399810.81970931013</v>
+        <v>4033.0702259232262</v>
       </c>
       <c r="CO14" s="6">
         <f t="shared" si="63"/>
-        <v>419801.36069477565</v>
+        <v>3912.0781191455294</v>
       </c>
       <c r="CP14" s="6">
         <f t="shared" si="63"/>
-        <v>440791.42872951447</v>
+        <v>3794.7157755711632</v>
       </c>
       <c r="CQ14" s="6">
         <f t="shared" si="63"/>
-        <v>462831.0001659902</v>
+        <v>3680.8743023040283</v>
       </c>
       <c r="CR14" s="6">
         <f t="shared" si="63"/>
-        <v>485972.55017428973</v>
+        <v>3570.4480732349075</v>
       </c>
       <c r="CS14" s="6">
         <f t="shared" si="63"/>
-        <v>510271.17768300424</v>
+        <v>3463.3346310378602</v>
       </c>
       <c r="CT14" s="6">
         <f t="shared" si="63"/>
-        <v>535784.73656715453</v>
+        <v>3359.4345921067243</v>
       </c>
       <c r="CU14" s="6">
         <f t="shared" si="63"/>
-        <v>562573.97339551232</v>
+        <v>3258.6515543435225</v>
       </c>
       <c r="CV14" s="6">
         <f t="shared" si="63"/>
-        <v>590702.67206528794</v>
+        <v>3160.8920077132166</v>
       </c>
       <c r="CW14" s="6">
         <f t="shared" ref="CW14:CZ14" si="64">CV14*(1+$AK$26)</f>
-        <v>620237.80566855241</v>
+        <v>3066.0652474818198</v>
       </c>
       <c r="CX14" s="6">
         <f t="shared" si="64"/>
-        <v>651249.69595198007</v>
+        <v>2974.083290057365</v>
       </c>
       <c r="CY14" s="6">
         <f t="shared" si="64"/>
-        <v>683812.1807495791</v>
+        <v>2884.8607913556439</v>
       </c>
       <c r="CZ14" s="6">
         <f t="shared" si="64"/>
-        <v>718002.78978705814</v>
+        <v>2798.3149676149746</v>
       </c>
     </row>
     <row r="15" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="AI22" s="7">
         <f>AI13/AI12</f>
-        <v>0.31548980606663346</v>
+        <v>0.36764296369965199</v>
       </c>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.2">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="AI23" s="7">
         <f t="shared" si="106"/>
-        <v>5.0000000000000044E-2</v>
+        <v>-3.0000000000000138E-2</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>53</v>
       </c>
       <c r="AK26" s="10">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="AM26" s="1" t="s">
         <v>58</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="AK28" s="17">
         <f>NPV(AK27,AI14:CZ14)</f>
-        <v>476465.73448924138</v>
+        <v>176050.94610292348</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="AK29" s="16">
         <f>AK28/Main!M3</f>
-        <v>114.34262886710856</v>
+        <v>42.248847156929081</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AK31" s="15">
         <f>AK29/Main!M2-1</f>
-        <v>0.21641094539477179</v>
+        <v>-0.55054417918160548</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.2">

--- a/XOM.xlsx
+++ b/XOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7D1B4-4934-4CB3-B1AE-989690ED03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8018A92-4DD7-4286-8467-3CFD9EDE70CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -731,12 +731,12 @@
       <selection activeCell="A18" sqref="A18:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
@@ -752,7 +752,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="4" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
@@ -761,7 +761,7 @@
         <v>391698</v>
       </c>
     </row>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,7 +769,7 @@
         <v>18861</v>
       </c>
     </row>
-    <row r="6" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,7 +777,7 @@
         <v>39516</v>
       </c>
     </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,28 +797,28 @@
   <dimension ref="B1:CZ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK27" sqref="AK27"/>
+      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="9.109375" style="1"/>
+    <col min="37" max="37" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:104" x14ac:dyDescent="0.25">
       <c r="C1" s="4">
         <v>43555</v>
       </c>
@@ -865,7 +865,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="2" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:104" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="3" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>306874</v>
       </c>
     </row>
-    <row r="4" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>7722</v>
       </c>
     </row>
-    <row r="5" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="6" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>316993</v>
       </c>
     </row>
-    <row r="7" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>174951</v>
       </c>
     </row>
-    <row r="8" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>38214</v>
       </c>
     </row>
-    <row r="9" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>9195</v>
       </c>
     </row>
-    <row r="10" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="11" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>280795</v>
       </c>
     </row>
-    <row r="12" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>36198</v>
       </c>
     </row>
-    <row r="13" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>13307.940000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:104" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:104" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>2798.3149676149746</v>
       </c>
     </row>
-    <row r="15" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="16" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0.10908157807236929</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0.10976403865004891</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0.10976403865004891</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0.88580820396664905</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0.36764296369965199</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>-3.0000000000000138E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>176050.94610292348</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>42.248847156929081</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="AJ30" s="11"/>
       <c r="AK30" s="13"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>-0.55054417918160548</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>4.4432900432900437</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
